--- a/Replication Package/documentation/rider-audits/compliance-pilot/codebooks/merged.xlsx
+++ b/Replication Package/documentation/rider-audits/compliance-pilot/codebooks/merged.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb501238\Documents\GitHub\rio_vagao_rosa\documentation\rider-audits\compliance-pilot\codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB10738-4165-4805-B7AC-B74E2C19B674}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550FCF29-2690-48D6-9BF2-3A79CAE08C26}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="310">
   <si>
     <t>name</t>
   </si>
@@ -862,6 +862,96 @@
   </si>
   <si>
     <t>Check-in - Time task was opened (local time)</t>
+  </si>
+  <si>
+    <t>Ride - time bin</t>
+  </si>
+  <si>
+    <t>CI_started1</t>
+  </si>
+  <si>
+    <t>CI_started2</t>
+  </si>
+  <si>
+    <t>CO_started1</t>
+  </si>
+  <si>
+    <t>CO_started2</t>
+  </si>
+  <si>
+    <t>RI_started1</t>
+  </si>
+  <si>
+    <t>RI_started2</t>
+  </si>
+  <si>
+    <t>CI_hour</t>
+  </si>
+  <si>
+    <t>CI_min</t>
+  </si>
+  <si>
+    <t>RI_hour</t>
+  </si>
+  <si>
+    <t>RI_min</t>
+  </si>
+  <si>
+    <t>CO_hour</t>
+  </si>
+  <si>
+    <t>CO_min</t>
+  </si>
+  <si>
+    <t>time_bin</t>
+  </si>
+  <si>
+    <t>6:00-6:30 AM</t>
+  </si>
+  <si>
+    <t>6:30-7:00 AM</t>
+  </si>
+  <si>
+    <t>7:00-7:30 AM</t>
+  </si>
+  <si>
+    <t>7:30-8:00 AM</t>
+  </si>
+  <si>
+    <t>8:00-8:30 AM</t>
+  </si>
+  <si>
+    <t>8:30-9:00 AM</t>
+  </si>
+  <si>
+    <t>5:00-5:30 PM</t>
+  </si>
+  <si>
+    <t>5:30-6:00 PM</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>6:00-6:30 PM</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>6:30-7:00 PM</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>7:00-7:30 PM</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>7:30-8:00 PM</t>
   </si>
 </sst>
 </file>
@@ -1210,10 +1300,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3018,6 +3108,9 @@
       </c>
     </row>
     <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>84</v>
+      </c>
       <c r="B63" t="s">
         <v>20</v>
       </c>
@@ -3128,14 +3221,17 @@
       </c>
     </row>
     <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>88</v>
+      </c>
       <c r="B67" t="s">
-        <v>20</v>
+        <v>280</v>
       </c>
       <c r="C67" t="s">
         <v>20</v>
       </c>
       <c r="D67" t="s">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="E67" t="s">
         <v>88</v>
@@ -3351,6 +3447,75 @@
       </c>
       <c r="I74" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="E75" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="E76" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="E77" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="E78" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="E79" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="E80" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>287</v>
+      </c>
+      <c r="E81" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>288</v>
+      </c>
+      <c r="E82" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="E83" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="E84" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>289</v>
+      </c>
+      <c r="E85" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="E86" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -3361,9 +3526,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -3431,6 +3598,138 @@
       </c>
       <c r="C6" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>293</v>
+      </c>
+      <c r="B10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>293</v>
+      </c>
+      <c r="B11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>293</v>
+      </c>
+      <c r="B12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>293</v>
+      </c>
+      <c r="B13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C13" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>293</v>
+      </c>
+      <c r="B14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>293</v>
+      </c>
+      <c r="B15" t="s">
+        <v>302</v>
+      </c>
+      <c r="C15" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>293</v>
+      </c>
+      <c r="B16" t="s">
+        <v>304</v>
+      </c>
+      <c r="C16" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>293</v>
+      </c>
+      <c r="B17" t="s">
+        <v>306</v>
+      </c>
+      <c r="C17" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>293</v>
+      </c>
+      <c r="B18" t="s">
+        <v>308</v>
+      </c>
+      <c r="C18" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
